--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4088575.846740998</v>
+        <v>4086030.660667713</v>
       </c>
     </row>
     <row r="7">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>166.402432202549</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>193.4171325760649</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.83808333974894</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,25 +944,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>341.2578399936063</v>
       </c>
       <c r="Y5" t="n">
-        <v>105.0839683962665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>14.82811972447731</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>223.82438355203</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>207.6269737408543</v>
+        <v>249.0705674058974</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>145.5003680194915</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>105.1705422159065</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881301</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>130.120807446024</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1607,22 +1607,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>83.06560892428207</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174137</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>41.16673120696609</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>34.56584948763671</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>52.10645541514072</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634791</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7197280522375</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3472,22 +3472,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>237.1280940168098</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710058</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,10 +3670,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744908955</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>991.2778500677821</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>991.2778500677821</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>633.0121514610316</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>633.0121514610316</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>222.0262466714241</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2270.572072876962</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2016.810287515053</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>1685.747400171482</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.743608328862</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>991.2778500677821</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>991.2778500677821</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>689.9086980046678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>520.9725150767609</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>224.6669506791649</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="Y5" t="n">
-        <v>2535.974978926224</v>
+        <v>1317.778685247039</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>363.7239216122612</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>215.810828029868</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>68.92088053195769</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>68.92088053195769</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245969</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245969</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1710.685703078436</v>
+        <v>750.4246741269774</v>
       </c>
       <c r="C8" t="n">
-        <v>1341.723186138024</v>
+        <v>750.4246741269774</v>
       </c>
       <c r="D8" t="n">
-        <v>983.457487531274</v>
+        <v>392.1589755202269</v>
       </c>
       <c r="E8" t="n">
-        <v>597.6692349330297</v>
+        <v>392.1589755202269</v>
       </c>
       <c r="F8" t="n">
-        <v>186.6833301434222</v>
+        <v>385.2134747710234</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>372.1660970478549</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>221.9370458384844</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>625.4041588585299</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>1178.217417104729</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1809.935228088041</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1388.610945914228</v>
       </c>
       <c r="X8" t="n">
-        <v>2487.42487511837</v>
+        <v>1137.024514191099</v>
       </c>
       <c r="Y8" t="n">
-        <v>2097.285543142558</v>
+        <v>1137.024514191099</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>975.0527656697138</v>
+        <v>625.9123413498401</v>
       </c>
       <c r="M9" t="n">
-        <v>1154.550102024319</v>
+        <v>1079.904546893894</v>
       </c>
       <c r="N9" t="n">
-        <v>1822.094502051329</v>
+        <v>1747.448946920904</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>490.3302205638821</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>947.6447923545511</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>719.6552414565338</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>366.9636532421617</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K15" t="n">
-        <v>184.7035232280589</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5507,31 +5507,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,16 +5747,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5975,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6309,19 +6309,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908939</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="29">
@@ -6461,10 +6461,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,16 +6540,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,22 +6780,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273903</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>692.9625378792909</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1320.560501433898</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6947,40 +6947,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784063</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1333.912104952176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.119525808646</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7163,61 +7163,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>924.834428639718</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>2148.04349261611</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925216</v>
+        <v>241.7297566303649</v>
       </c>
       <c r="E40" t="n">
-        <v>296.7882229101285</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="F40" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O42" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400712</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D43" t="n">
-        <v>513.8536007400712</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E43" t="n">
-        <v>513.8536007400712</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7649,7 +7649,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,16 +7725,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>148.2422363886229</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8468,10 +8468,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,25 +8529,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>339.1843734049999</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>277.2675446358076</v>
       </c>
       <c r="N9" t="n">
         <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.2291039219422</v>
+        <v>35.40333084624481</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864917</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>184.0188038644581</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>45.7142345943317</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,22 +25360,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>15.00954930701818</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>110.003342051665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>35.40333084624569</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>32.15184655856257</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,16 +26026,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>37.12601365260463</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642828</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="F2" t="n">
         <v>807146.5996900059</v>
@@ -26329,31 +26329,31 @@
         <v>807146.599690006</v>
       </c>
       <c r="H2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="J2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="L2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="J2" t="n">
-        <v>807146.5996900065</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900061</v>
-      </c>
       <c r="M2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808063</v>
+        <v>771052.6913808067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682809</v>
+        <v>5677.536566682622</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682714</v>
+        <v>5677.536566682684</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682714</v>
+        <v>5677.536566682767</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682729</v>
+        <v>5677.536566682767</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682746</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
+        <v>5677.536566682765</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5677.536566682803</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5677.536566682826</v>
+      </c>
+      <c r="O4" t="n">
         <v>5677.536566682748</v>
       </c>
-      <c r="K4" t="n">
-        <v>5677.536566682753</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682754</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682737</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26522,46 +26522,46 @@
         <v>-61707.60287670416</v>
       </c>
       <c r="C6" t="n">
-        <v>528260.2763378405</v>
+        <v>528260.27633784</v>
       </c>
       <c r="D6" t="n">
         <v>372456.4702440457</v>
       </c>
       <c r="E6" t="n">
-        <v>-70706.15808138993</v>
+        <v>-70740.89600682631</v>
       </c>
       <c r="F6" t="n">
-        <v>700346.5332994161</v>
+        <v>700311.7953739807</v>
       </c>
       <c r="G6" t="n">
-        <v>700346.5332994162</v>
+        <v>700311.7953739809</v>
       </c>
       <c r="H6" t="n">
-        <v>700346.5332994164</v>
+        <v>700311.7953739807</v>
       </c>
       <c r="I6" t="n">
-        <v>700346.5332994164</v>
+        <v>700311.7953739804</v>
       </c>
       <c r="J6" t="n">
-        <v>523923.3141068236</v>
+        <v>523888.5761813879</v>
       </c>
       <c r="K6" t="n">
-        <v>700346.5332994163</v>
+        <v>700311.795373981</v>
       </c>
       <c r="L6" t="n">
-        <v>700346.5332994163</v>
+        <v>700311.7953739808</v>
       </c>
       <c r="M6" t="n">
-        <v>576138.0225913581</v>
+        <v>576103.2846659221</v>
       </c>
       <c r="N6" t="n">
-        <v>700346.5332994163</v>
+        <v>700311.7953739805</v>
       </c>
       <c r="O6" t="n">
-        <v>700346.5332994163</v>
+        <v>700311.7953739807</v>
       </c>
       <c r="P6" t="n">
-        <v>700346.5332994163</v>
+        <v>700311.7953739809</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26796,10 +26796,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036091</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450932</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450932</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>247.381737818246</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>23.03118778159291</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141.9938968421883</v>
+        <v>10.81525101172488</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>28.47326068486274</v>
       </c>
       <c r="Y5" t="n">
-        <v>281.1539702597871</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>141.3427691173178</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27822,10 +27822,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>62.69861478456102</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>162.1041269376147</v>
+        <v>120.6605332725716</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>140.7602866386055</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>181.3524561206845</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-1.446170080239896e-12</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28327,22 +28327,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-5.625170087700473e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-9.654070646351537e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.751381063403296e-13</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-6.751381063403296e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29983,22 +29983,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.478997154632013e-12</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.736439038534721e-12</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>469.5567819573399</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>151.9914336104071</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>543.0832917018711</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33029,13 +33029,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33260,19 +33260,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33500,16 +33500,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>362.5355639238086</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33734,19 +33734,19 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>555.177741663068</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33755,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,31 +33977,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>543.0832917018711</v>
+        <v>345.1232217852624</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P42" t="n">
-        <v>543.0832917018711</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>169.6909737556767</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
@@ -35188,10 +35188,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>477.8001289764079</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>458.5779853980346</v>
       </c>
       <c r="N9" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>327.4227480353216</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>409.1088842875408</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>222.5537898377871</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37315,13 +37315,13 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193501</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831938</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37403,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>409.1088842875408</v>
+        <v>211.1488143709321</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P42" t="n">
-        <v>409.1088842875408</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
